--- a/updated_eisenmann_db.xlsx
+++ b/updated_eisenmann_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winnie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D8607-DCD1-4769-A710-3C9C3E0B8EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A117A387-1752-4236-B10E-EAD789C8E504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22884" yWindow="1524" windowWidth="21600" windowHeight="11292" xr2:uid="{D67D84A2-C37E-4C64-B94B-9EC43190988A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D67D84A2-C37E-4C64-B94B-9EC43190988A}"/>
   </bookViews>
   <sheets>
     <sheet name="EISENMANN_DB" sheetId="6" r:id="rId1"/>
@@ -5083,7 +5083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5092,7 +5092,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5300,7 +5299,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D4FC94-825A-4FD9-A287-F42FA6B367EA}" name="EISEN_DB_11252025" displayName="EISEN_DB_11252025" ref="A1:BC490" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:BC490" xr:uid="{23D4FC94-825A-4FD9-A287-F42FA6B367EA}"/>
+  <autoFilter ref="A1:BC490" xr:uid="{23D4FC94-825A-4FD9-A287-F42FA6B367EA}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="F000080409"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{9B05196E-B3A5-4694-8153-57AB5B697DC6}" uniqueName="1" name="PRIMARY PART NUM" queryTableFieldId="1" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{971EAD4C-0641-4B92-BC3E-681F1322A736}" uniqueName="2" name="DESCRIPTION" queryTableFieldId="2" dataDxfId="39"/>
@@ -5681,8 +5686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D79E02-7DFF-4434-935D-372A875CA06E}">
   <dimension ref="A1:BC490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF220" sqref="AF220"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5908,7 +5913,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -6060,7 +6065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6212,7 +6217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6358,7 +6363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -6507,7 +6512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6659,7 +6664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>559</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -7267,7 +7272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -7416,7 +7421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -7565,7 +7570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -7711,7 +7716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -7860,7 +7865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -8009,7 +8014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -8161,7 +8166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -8313,7 +8318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -8459,7 +8464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -8611,7 +8616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -8760,7 +8765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -8909,7 +8914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -9058,7 +9063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -9207,7 +9212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -9356,7 +9361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -9502,7 +9507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -9648,7 +9653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -9797,7 +9802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -9943,7 +9948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>562</v>
       </c>
@@ -10092,7 +10097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>565</v>
       </c>
@@ -10244,7 +10249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>566</v>
       </c>
@@ -10396,7 +10401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>567</v>
       </c>
@@ -10545,7 +10550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -10694,7 +10699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -10843,7 +10848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -10992,7 +10997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -11141,7 +11146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -11290,7 +11295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -11439,7 +11444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -11588,7 +11593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -11740,7 +11745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>570</v>
       </c>
@@ -11892,7 +11897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>573</v>
       </c>
@@ -12044,7 +12049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>576</v>
       </c>
@@ -12196,7 +12201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>578</v>
       </c>
@@ -12348,7 +12353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -12494,7 +12499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>580</v>
       </c>
@@ -12646,7 +12651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -12798,7 +12803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -12947,7 +12952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -13096,7 +13101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -13245,7 +13250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -13394,7 +13399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>583</v>
       </c>
@@ -13546,7 +13551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -13692,7 +13697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -13844,7 +13849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>586</v>
       </c>
@@ -13996,7 +14001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -14142,7 +14147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -14291,7 +14296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -14440,7 +14445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -14589,7 +14594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -14735,7 +14740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -14881,7 +14886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -15030,7 +15035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -15179,7 +15184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>588</v>
       </c>
@@ -15328,7 +15333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -15474,7 +15479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -15623,7 +15628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -15772,7 +15777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -15921,7 +15926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>589</v>
       </c>
@@ -16070,7 +16075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -16219,7 +16224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -16368,7 +16373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -16517,7 +16522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -16663,7 +16668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -16812,7 +16817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>591</v>
       </c>
@@ -16961,7 +16966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>593</v>
       </c>
@@ -17110,7 +17115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>595</v>
       </c>
@@ -17259,7 +17264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>597</v>
       </c>
@@ -17408,7 +17413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>599</v>
       </c>
@@ -17557,7 +17562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>601</v>
       </c>
@@ -17706,7 +17711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>603</v>
       </c>
@@ -17855,7 +17860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>605</v>
       </c>
@@ -18004,7 +18009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>138</v>
       </c>
@@ -18153,7 +18158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>140</v>
       </c>
@@ -18305,7 +18310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>142</v>
       </c>
@@ -18454,7 +18459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -18600,7 +18605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -18749,7 +18754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -18895,7 +18900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>154</v>
       </c>
@@ -19041,7 +19046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>157</v>
       </c>
@@ -19190,7 +19195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -19342,7 +19347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -19494,7 +19499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>611</v>
       </c>
@@ -19646,7 +19651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -19801,7 +19806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>615</v>
       </c>
@@ -19953,7 +19958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>616</v>
       </c>
@@ -20105,7 +20110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>617</v>
       </c>
@@ -20257,7 +20262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>618</v>
       </c>
@@ -20409,7 +20414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>619</v>
       </c>
@@ -20561,7 +20566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>620</v>
       </c>
@@ -20710,7 +20715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>622</v>
       </c>
@@ -20859,7 +20864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>623</v>
       </c>
@@ -21011,7 +21016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>625</v>
       </c>
@@ -21163,7 +21168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>627</v>
       </c>
@@ -21315,7 +21320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>516</v>
       </c>
@@ -21467,7 +21472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>168</v>
       </c>
@@ -21616,7 +21621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>173</v>
       </c>
@@ -21768,7 +21773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>174</v>
       </c>
@@ -21917,7 +21922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -22066,7 +22071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>179</v>
       </c>
@@ -22215,7 +22220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>181</v>
       </c>
@@ -22364,7 +22369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>182</v>
       </c>
@@ -22513,7 +22518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>184</v>
       </c>
@@ -22662,7 +22667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>185</v>
       </c>
@@ -22811,7 +22816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>186</v>
       </c>
@@ -22960,7 +22965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>630</v>
       </c>
@@ -23109,7 +23114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>632</v>
       </c>
@@ -23258,7 +23263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>188</v>
       </c>
@@ -23410,7 +23415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>190</v>
       </c>
@@ -23559,7 +23564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -23705,7 +23710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>194</v>
       </c>
@@ -23854,7 +23859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>634</v>
       </c>
@@ -24006,7 +24011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -24155,7 +24160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>636</v>
       </c>
@@ -24304,7 +24309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>638</v>
       </c>
@@ -24453,7 +24458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>197</v>
       </c>
@@ -24757,7 +24762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>199</v>
       </c>
@@ -24906,7 +24911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>201</v>
       </c>
@@ -25055,7 +25060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>203</v>
       </c>
@@ -25207,7 +25212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>205</v>
       </c>
@@ -25356,7 +25361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>206</v>
       </c>
@@ -25505,7 +25510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>207</v>
       </c>
@@ -25654,7 +25659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>643</v>
       </c>
@@ -25803,7 +25808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -25952,7 +25957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>645</v>
       </c>
@@ -26104,7 +26109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>647</v>
       </c>
@@ -26256,7 +26261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>649</v>
       </c>
@@ -26408,7 +26413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>651</v>
       </c>
@@ -26560,7 +26565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>210</v>
       </c>
@@ -26709,7 +26714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>654</v>
       </c>
@@ -26858,7 +26863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>656</v>
       </c>
@@ -27010,7 +27015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>211</v>
       </c>
@@ -27159,7 +27164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>658</v>
       </c>
@@ -27308,7 +27313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>660</v>
       </c>
@@ -27460,7 +27465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>662</v>
       </c>
@@ -27612,7 +27617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>213</v>
       </c>
@@ -27758,7 +27763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>216</v>
       </c>
@@ -27907,7 +27912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>217</v>
       </c>
@@ -28056,7 +28061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>664</v>
       </c>
@@ -28205,7 +28210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>218</v>
       </c>
@@ -28354,7 +28359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>219</v>
       </c>
@@ -28500,7 +28505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>222</v>
       </c>
@@ -28652,7 +28657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>224</v>
       </c>
@@ -28801,7 +28806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>667</v>
       </c>
@@ -28953,7 +28958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>225</v>
       </c>
@@ -29102,7 +29107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>669</v>
       </c>
@@ -29251,7 +29256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>226</v>
       </c>
@@ -29406,7 +29411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>228</v>
       </c>
@@ -29555,7 +29560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>229</v>
       </c>
@@ -29704,7 +29709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>230</v>
       </c>
@@ -29850,7 +29855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>232</v>
       </c>
@@ -29999,7 +30004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>234</v>
       </c>
@@ -30148,7 +30153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>235</v>
       </c>
@@ -30297,7 +30302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>675</v>
       </c>
@@ -30449,7 +30454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>236</v>
       </c>
@@ -30598,7 +30603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>238</v>
       </c>
@@ -30750,7 +30755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>240</v>
       </c>
@@ -30899,7 +30904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>242</v>
       </c>
@@ -31048,7 +31053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>678</v>
       </c>
@@ -31197,7 +31202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>243</v>
       </c>
@@ -31343,7 +31348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>245</v>
       </c>
@@ -31492,7 +31497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>247</v>
       </c>
@@ -31641,7 +31646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>681</v>
       </c>
@@ -31790,7 +31795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>684</v>
       </c>
@@ -31939,7 +31944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>686</v>
       </c>
@@ -32088,7 +32093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>688</v>
       </c>
@@ -32240,7 +32245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>690</v>
       </c>
@@ -32392,7 +32397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>693</v>
       </c>
@@ -32541,7 +32546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>248</v>
       </c>
@@ -32690,7 +32695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>250</v>
       </c>
@@ -32839,7 +32844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>251</v>
       </c>
@@ -32988,7 +32993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>253</v>
       </c>
@@ -33137,7 +33142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>255</v>
       </c>
@@ -33286,7 +33291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>257</v>
       </c>
@@ -33438,7 +33443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>259</v>
       </c>
@@ -33590,7 +33595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>260</v>
       </c>
@@ -33739,7 +33744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>261</v>
       </c>
@@ -33888,7 +33893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>696</v>
       </c>
@@ -34037,7 +34042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>699</v>
       </c>
@@ -34186,7 +34191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>262</v>
       </c>
@@ -34335,7 +34340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>701</v>
       </c>
@@ -34484,7 +34489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>703</v>
       </c>
@@ -34633,7 +34638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>706</v>
       </c>
@@ -34782,7 +34787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>709</v>
       </c>
@@ -34931,7 +34936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>263</v>
       </c>
@@ -35080,7 +35085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>711</v>
       </c>
@@ -35229,7 +35234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>264</v>
       </c>
@@ -35378,7 +35383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -35527,7 +35532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>267</v>
       </c>
@@ -35676,7 +35681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>268</v>
       </c>
@@ -35825,7 +35830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>270</v>
       </c>
@@ -35974,7 +35979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>271</v>
       </c>
@@ -36123,7 +36128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>714</v>
       </c>
@@ -36275,7 +36280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>272</v>
       </c>
@@ -36424,7 +36429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>274</v>
       </c>
@@ -36573,7 +36578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>276</v>
       </c>
@@ -36725,7 +36730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>278</v>
       </c>
@@ -36874,7 +36879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>279</v>
       </c>
@@ -37020,7 +37025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>281</v>
       </c>
@@ -37166,7 +37171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>283</v>
       </c>
@@ -37315,7 +37320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>718</v>
       </c>
@@ -37464,7 +37469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>284</v>
       </c>
@@ -37610,7 +37615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>721</v>
       </c>
@@ -37762,7 +37767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>286</v>
       </c>
@@ -37908,7 +37913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>288</v>
       </c>
@@ -38057,7 +38062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>723</v>
       </c>
@@ -38209,7 +38214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>290</v>
       </c>
@@ -38358,7 +38363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>725</v>
       </c>
@@ -38510,7 +38515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>727</v>
       </c>
@@ -38659,7 +38664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>729</v>
       </c>
@@ -38811,7 +38816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>731</v>
       </c>
@@ -38963,7 +38968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>733</v>
       </c>
@@ -39112,7 +39117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>291</v>
       </c>
@@ -39261,7 +39266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>292</v>
       </c>
@@ -39416,7 +39421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>293</v>
       </c>
@@ -39568,7 +39573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>295</v>
       </c>
@@ -39717,7 +39722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>296</v>
       </c>
@@ -39869,7 +39874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>297</v>
       </c>
@@ -40024,7 +40029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>740</v>
       </c>
@@ -40176,7 +40181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>742</v>
       </c>
@@ -40325,7 +40330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>299</v>
       </c>
@@ -40477,7 +40482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>300</v>
       </c>
@@ -40629,7 +40634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>302</v>
       </c>
@@ -40781,7 +40786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>304</v>
       </c>
@@ -40933,7 +40938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>745</v>
       </c>
@@ -41085,7 +41090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>306</v>
       </c>
@@ -41237,7 +41242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>307</v>
       </c>
@@ -41383,7 +41388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>748</v>
       </c>
@@ -41532,7 +41537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>751</v>
       </c>
@@ -41684,7 +41689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>310</v>
       </c>
@@ -41833,7 +41838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>311</v>
       </c>
@@ -41982,7 +41987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>312</v>
       </c>
@@ -42128,7 +42133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>313</v>
       </c>
@@ -42274,7 +42279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>315</v>
       </c>
@@ -42426,7 +42431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>316</v>
       </c>
@@ -42575,7 +42580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>317</v>
       </c>
@@ -42724,7 +42729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>318</v>
       </c>
@@ -42873,7 +42878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>319</v>
       </c>
@@ -43019,7 +43024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>321</v>
       </c>
@@ -43168,7 +43173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>323</v>
       </c>
@@ -43317,7 +43322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>752</v>
       </c>
@@ -43466,7 +43471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>755</v>
       </c>
@@ -43618,7 +43623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>325</v>
       </c>
@@ -43767,7 +43772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>326</v>
       </c>
@@ -43916,7 +43921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>327</v>
       </c>
@@ -44065,7 +44070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>328</v>
       </c>
@@ -44214,7 +44219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>329</v>
       </c>
@@ -44360,7 +44365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>331</v>
       </c>
@@ -44506,7 +44511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>332</v>
       </c>
@@ -44655,7 +44660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>757</v>
       </c>
@@ -44807,7 +44812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>758</v>
       </c>
@@ -44956,7 +44961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>333</v>
       </c>
@@ -45111,7 +45116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>334</v>
       </c>
@@ -45260,7 +45265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>760</v>
       </c>
@@ -45409,7 +45414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>336</v>
       </c>
@@ -45555,7 +45560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>339</v>
       </c>
@@ -45704,7 +45709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>341</v>
       </c>
@@ -45856,7 +45861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>343</v>
       </c>
@@ -46005,7 +46010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>762</v>
       </c>
@@ -46154,7 +46159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>765</v>
       </c>
@@ -46303,7 +46308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>768</v>
       </c>
@@ -46452,7 +46457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>771</v>
       </c>
@@ -46601,7 +46606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>772</v>
       </c>
@@ -46750,7 +46755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>775</v>
       </c>
@@ -46899,7 +46904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>778</v>
       </c>
@@ -47048,7 +47053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>344</v>
       </c>
@@ -47197,7 +47202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>345</v>
       </c>
@@ -47349,7 +47354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>346</v>
       </c>
@@ -47501,7 +47506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>347</v>
       </c>
@@ -47650,7 +47655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>781</v>
       </c>
@@ -47802,7 +47807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>348</v>
       </c>
@@ -47951,7 +47956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>349</v>
       </c>
@@ -48103,7 +48108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>351</v>
       </c>
@@ -48252,7 +48257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>352</v>
       </c>
@@ -48401,7 +48406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>783</v>
       </c>
@@ -48550,7 +48555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>785</v>
       </c>
@@ -48699,7 +48704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>353</v>
       </c>
@@ -48848,7 +48853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>787</v>
       </c>
@@ -49000,7 +49005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>788</v>
       </c>
@@ -49152,7 +49157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>789</v>
       </c>
@@ -49301,7 +49306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>354</v>
       </c>
@@ -49450,7 +49455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>790</v>
       </c>
@@ -49602,7 +49607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>792</v>
       </c>
@@ -49754,7 +49759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>793</v>
       </c>
@@ -49903,7 +49908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>356</v>
       </c>
@@ -50049,7 +50054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>795</v>
       </c>
@@ -50198,7 +50203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="298" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -50347,7 +50352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>798</v>
       </c>
@@ -50499,7 +50504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>800</v>
       </c>
@@ -50648,7 +50653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>802</v>
       </c>
@@ -50797,7 +50802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>361</v>
       </c>
@@ -50946,7 +50951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>804</v>
       </c>
@@ -51095,7 +51100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>806</v>
       </c>
@@ -51247,7 +51252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>362</v>
       </c>
@@ -51396,7 +51401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>809</v>
       </c>
@@ -51548,7 +51553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>363</v>
       </c>
@@ -51697,7 +51702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="308" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>812</v>
       </c>
@@ -51846,7 +51851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>815</v>
       </c>
@@ -51995,7 +52000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>816</v>
       </c>
@@ -52144,7 +52149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>365</v>
       </c>
@@ -52293,7 +52298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>367</v>
       </c>
@@ -52442,7 +52447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>818</v>
       </c>
@@ -52594,7 +52599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>368</v>
       </c>
@@ -52746,7 +52751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>819</v>
       </c>
@@ -52895,7 +52900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>370</v>
       </c>
@@ -53041,7 +53046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>373</v>
       </c>
@@ -53190,7 +53195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>374</v>
       </c>
@@ -53336,7 +53341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>376</v>
       </c>
@@ -53485,7 +53490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="320" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>822</v>
       </c>
@@ -53634,7 +53639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>378</v>
       </c>
@@ -53789,7 +53794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>825</v>
       </c>
@@ -53938,7 +53943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="323" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>827</v>
       </c>
@@ -54087,7 +54092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>379</v>
       </c>
@@ -54236,7 +54241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>829</v>
       </c>
@@ -54388,7 +54393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>381</v>
       </c>
@@ -54540,7 +54545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>382</v>
       </c>
@@ -54686,7 +54691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>384</v>
       </c>
@@ -54835,7 +54840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>830</v>
       </c>
@@ -54984,7 +54989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>832</v>
       </c>
@@ -55136,7 +55141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>386</v>
       </c>
@@ -55285,7 +55290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>388</v>
       </c>
@@ -55440,7 +55445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>390</v>
       </c>
@@ -55589,7 +55594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>834</v>
       </c>
@@ -55738,7 +55743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>392</v>
       </c>
@@ -55887,7 +55892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>836</v>
       </c>
@@ -56036,7 +56041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="337" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>394</v>
       </c>
@@ -56185,7 +56190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>395</v>
       </c>
@@ -56334,7 +56339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>397</v>
       </c>
@@ -56483,7 +56488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>398</v>
       </c>
@@ -56629,7 +56634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>838</v>
       </c>
@@ -56778,7 +56783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>841</v>
       </c>
@@ -56930,7 +56935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>400</v>
       </c>
@@ -57076,7 +57081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>843</v>
       </c>
@@ -57225,7 +57230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>403</v>
       </c>
@@ -57371,7 +57376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>846</v>
       </c>
@@ -57520,7 +57525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>848</v>
       </c>
@@ -57672,7 +57677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>405</v>
       </c>
@@ -57821,7 +57826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="349" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>849</v>
       </c>
@@ -57973,7 +57978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>406</v>
       </c>
@@ -58122,7 +58127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>408</v>
       </c>
@@ -58274,7 +58279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>852</v>
       </c>
@@ -58423,7 +58428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>854</v>
       </c>
@@ -58572,7 +58577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>856</v>
       </c>
@@ -58724,7 +58729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>409</v>
       </c>
@@ -58870,7 +58875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>858</v>
       </c>
@@ -59019,7 +59024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>861</v>
       </c>
@@ -59168,7 +59173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="358" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>863</v>
       </c>
@@ -59317,7 +59322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>865</v>
       </c>
@@ -59466,7 +59471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>866</v>
       </c>
@@ -59615,7 +59620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="361" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>411</v>
       </c>
@@ -59764,7 +59769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="362" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>868</v>
       </c>
@@ -59913,7 +59918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="363" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>871</v>
       </c>
@@ -60062,7 +60067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="364" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>874</v>
       </c>
@@ -60211,7 +60216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>413</v>
       </c>
@@ -60360,7 +60365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>876</v>
       </c>
@@ -60509,7 +60514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>879</v>
       </c>
@@ -60658,7 +60663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>882</v>
       </c>
@@ -60810,7 +60815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="369" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>883</v>
       </c>
@@ -60962,7 +60967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="370" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>885</v>
       </c>
@@ -61111,7 +61116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>887</v>
       </c>
@@ -61260,7 +61265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="372" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>889</v>
       </c>
@@ -61409,7 +61414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="373" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>415</v>
       </c>
@@ -61558,7 +61563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>892</v>
       </c>
@@ -61710,7 +61715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>416</v>
       </c>
@@ -61859,7 +61864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>894</v>
       </c>
@@ -62008,7 +62013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>896</v>
       </c>
@@ -62157,7 +62162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="378" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>898</v>
       </c>
@@ -62306,7 +62311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>900</v>
       </c>
@@ -62455,7 +62460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>902</v>
       </c>
@@ -62604,7 +62609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>903</v>
       </c>
@@ -62756,7 +62761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>905</v>
       </c>
@@ -62905,7 +62910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>906</v>
       </c>
@@ -63054,7 +63059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>908</v>
       </c>
@@ -63203,7 +63208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>418</v>
       </c>
@@ -63349,7 +63354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="386" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>419</v>
       </c>
@@ -63498,7 +63503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>910</v>
       </c>
@@ -63647,7 +63652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>912</v>
       </c>
@@ -63796,7 +63801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="389" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>914</v>
       </c>
@@ -63945,7 +63950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>916</v>
       </c>
@@ -64094,7 +64099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="391" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>918</v>
       </c>
@@ -64243,7 +64248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>920</v>
       </c>
@@ -64392,7 +64397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>922</v>
       </c>
@@ -64544,7 +64549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>924</v>
       </c>
@@ -64696,7 +64701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>926</v>
       </c>
@@ -64845,7 +64850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>928</v>
       </c>
@@ -64994,7 +64999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="397" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>420</v>
       </c>
@@ -65143,7 +65148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>930</v>
       </c>
@@ -65292,7 +65297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="399" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>932</v>
       </c>
@@ -65441,7 +65446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>934</v>
       </c>
@@ -65590,7 +65595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>936</v>
       </c>
@@ -65739,7 +65744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>939</v>
       </c>
@@ -65891,7 +65896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>940</v>
       </c>
@@ -66043,7 +66048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>422</v>
       </c>
@@ -66195,7 +66200,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="405" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>423</v>
       </c>
@@ -66344,7 +66349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>945</v>
       </c>
@@ -66493,7 +66498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>948</v>
       </c>
@@ -66642,7 +66647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>951</v>
       </c>
@@ -66791,7 +66796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>425</v>
       </c>
@@ -66937,7 +66942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>954</v>
       </c>
@@ -67089,7 +67094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>956</v>
       </c>
@@ -67241,7 +67246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>958</v>
       </c>
@@ -67393,7 +67398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>960</v>
       </c>
@@ -67542,7 +67547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>963</v>
       </c>
@@ -67694,7 +67699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>964</v>
       </c>
@@ -67846,7 +67851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>965</v>
       </c>
@@ -67998,7 +68003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>966</v>
       </c>
@@ -68150,7 +68155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="418" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>968</v>
       </c>
@@ -68299,7 +68304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>969</v>
       </c>
@@ -68451,7 +68456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>428</v>
       </c>
@@ -68600,7 +68605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>971</v>
       </c>
@@ -68749,7 +68754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="422" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>974</v>
       </c>
@@ -68898,7 +68903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>975</v>
       </c>
@@ -69047,7 +69052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="424" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>978</v>
       </c>
@@ -69196,7 +69201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>979</v>
       </c>
@@ -69345,7 +69350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="426" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>429</v>
       </c>
@@ -69494,7 +69499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>982</v>
       </c>
@@ -69646,7 +69651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="428" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>983</v>
       </c>
@@ -69798,7 +69803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>430</v>
       </c>
@@ -69947,7 +69952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>984</v>
       </c>
@@ -70096,7 +70101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>985</v>
       </c>
@@ -70245,7 +70250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -70394,7 +70399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>433</v>
       </c>
@@ -70543,7 +70548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>435</v>
       </c>
@@ -70692,7 +70697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="435" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>437</v>
       </c>
@@ -70841,7 +70846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>439</v>
       </c>
@@ -70993,7 +70998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>987</v>
       </c>
@@ -71145,7 +71150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>441</v>
       </c>
@@ -71294,7 +71299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="439" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>443</v>
       </c>
@@ -71446,7 +71451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>446</v>
       </c>
@@ -71598,7 +71603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>448</v>
       </c>
@@ -71747,7 +71752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="442" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>449</v>
       </c>
@@ -71896,7 +71901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>451</v>
       </c>
@@ -72045,7 +72050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="444" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>990</v>
       </c>
@@ -72194,7 +72199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="445" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>993</v>
       </c>
@@ -72343,7 +72348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="446" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>995</v>
       </c>
@@ -72492,7 +72497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="447" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>997</v>
       </c>
@@ -72644,7 +72649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="448" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>998</v>
       </c>
@@ -72793,7 +72798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="449" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1000</v>
       </c>
@@ -72945,7 +72950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1001</v>
       </c>
@@ -73094,7 +73099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="451" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>452</v>
       </c>
@@ -73243,7 +73248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>454</v>
       </c>
@@ -73389,7 +73394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="453" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>456</v>
       </c>
@@ -73535,7 +73540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="454" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>457</v>
       </c>
@@ -73684,7 +73689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>459</v>
       </c>
@@ -73833,7 +73838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="456" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>460</v>
       </c>
@@ -73979,7 +73984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="457" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>462</v>
       </c>
@@ -74128,7 +74133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="458" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>463</v>
       </c>
@@ -74277,7 +74282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>465</v>
       </c>
@@ -74426,7 +74431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="460" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>466</v>
       </c>
@@ -74575,7 +74580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="461" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>467</v>
       </c>
@@ -74721,7 +74726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="462" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>469</v>
       </c>
@@ -74870,7 +74875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>471</v>
       </c>
@@ -75019,7 +75024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1003</v>
       </c>
@@ -75168,7 +75173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="465" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>472</v>
       </c>
@@ -75320,7 +75325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>474</v>
       </c>
@@ -75469,7 +75474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>475</v>
       </c>
@@ -75618,7 +75623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>476</v>
       </c>
@@ -75767,7 +75772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="469" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>478</v>
       </c>
@@ -75916,7 +75921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="470" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>479</v>
       </c>
@@ -76065,7 +76070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>480</v>
       </c>
@@ -76214,7 +76219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>482</v>
       </c>
@@ -76363,7 +76368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="473" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>483</v>
       </c>
@@ -76512,7 +76517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="474" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>484</v>
       </c>
@@ -76661,7 +76666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="475" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>486</v>
       </c>
@@ -76810,7 +76815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="476" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>487</v>
       </c>
@@ -76959,7 +76964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="477" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1006</v>
       </c>
@@ -77111,7 +77116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="478" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1008</v>
       </c>
@@ -77263,7 +77268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="479" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1010</v>
       </c>
@@ -77415,7 +77420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="480" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>512</v>
       </c>
@@ -77567,7 +77572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>510</v>
       </c>
@@ -77719,7 +77724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="482" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>508</v>
       </c>
@@ -77871,7 +77876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="483" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>506</v>
       </c>
@@ -78023,7 +78028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="484" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>504</v>
       </c>
@@ -78172,7 +78177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="485" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>488</v>
       </c>
@@ -78321,7 +78326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="486" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>490</v>
       </c>
@@ -78470,7 +78475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>492</v>
       </c>
@@ -78619,7 +78624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="488" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>494</v>
       </c>
@@ -78768,7 +78773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="489" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>496</v>
       </c>
@@ -78914,7 +78919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="490" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>498</v>
       </c>
@@ -79225,8 +79230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709180BE-4002-4C34-A2C2-6738E657BEAF}">
   <dimension ref="A1:E389"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79250,7 +79255,7 @@
       <c r="D1" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>1646</v>
       </c>
     </row>
